--- a/Advanced/TemplaterServer (Java)/resources/templates/Benchmark.xlsx
+++ b/Advanced/TemplaterServer (Java)/resources/templates/Benchmark.xlsx
@@ -1,40 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="{{sheetName}}" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_.NET__instance_only">Sheet1!$I$56:$I$56</definedName>
-    <definedName name="DSL_client_Java_full__duration__both">Sheet1!$F$56:$F$56</definedName>
-    <definedName name="DSL_client_Java_full__duration__serialization">Sheet1!$J$52:$J$52</definedName>
-    <definedName name="DSL_client_Java_full__size">Sheet1!$K$52:$K$52</definedName>
-    <definedName name="DSL_client_Java_minimal__duration__both">Sheet1!$G$56:$G$56</definedName>
-    <definedName name="DSL_client_Java_minimal__duration__serialization">Sheet1!$L$52:$L$52</definedName>
-    <definedName name="DSL_client_Java_minimal__size">Sheet1!$M$52:$M$52</definedName>
-    <definedName name="Jackson__duration__both">Sheet1!$E$56:$E$56</definedName>
-    <definedName name="Jackson__duration__serialization">Sheet1!$H$52:$H$52</definedName>
-    <definedName name="Jackson__size">Sheet1!$I$52:$I$52</definedName>
-    <definedName name="JVM__instance_only">Sheet1!$J$56:$J$56</definedName>
-    <definedName name="Newtonsoft__duration__both">Sheet1!$B$56:$B$56</definedName>
-    <definedName name="Newtonsoft__duration__serialization">Sheet1!$B$52:$B$52</definedName>
-    <definedName name="Newtonsoft__size">Sheet1!$C$52:$C$52</definedName>
-    <definedName name="Protobuf.NET__duration__both">Sheet1!$H$56:$H$56</definedName>
-    <definedName name="Protobuf.NET__duration__serialization">Sheet1!$N$52:$N$52</definedName>
-    <definedName name="Protobuf.NET__size">Sheet1!$O$52:$O$52</definedName>
-    <definedName name="Revenj.NET_full__duration__serialization">Sheet1!$D$52:$D$52</definedName>
-    <definedName name="Revenj.NET_full__duration_both">Sheet1!$C$56:$C$56</definedName>
-    <definedName name="Revenj.NET_full__size">Sheet1!$E$52:$E$52</definedName>
-    <definedName name="Revenj.NET_minimal__duration__both">Sheet1!$D$56:$D$56</definedName>
-    <definedName name="Revenj.NET_minimal__duration__serialization">Sheet1!$F$52:$F$52</definedName>
-    <definedName name="Revenj.NET_minimal__size">Sheet1!$G$52:$G$52</definedName>
+    <definedName name="_.NET__instance_only">'{{sheetName}}'!$I$56:$I$56</definedName>
+    <definedName name="DSL_client_Java_full__duration__both">'{{sheetName}}'!$F$56:$F$56</definedName>
+    <definedName name="DSL_client_Java_full__duration__serialization">'{{sheetName}}'!$J$52:$J$52</definedName>
+    <definedName name="DSL_client_Java_full__size">'{{sheetName}}'!$K$52:$K$52</definedName>
+    <definedName name="DSL_client_Java_minimal__duration__both">'{{sheetName}}'!$G$56:$G$56</definedName>
+    <definedName name="DSL_client_Java_minimal__duration__serialization">'{{sheetName}}'!$L$52:$L$52</definedName>
+    <definedName name="DSL_client_Java_minimal__size">'{{sheetName}}'!$M$52:$M$52</definedName>
+    <definedName name="Jackson__duration__both">'{{sheetName}}'!$E$56:$E$56</definedName>
+    <definedName name="Jackson__duration__serialization">'{{sheetName}}'!$H$52:$H$52</definedName>
+    <definedName name="Jackson__size">'{{sheetName}}'!$I$52:$I$52</definedName>
+    <definedName name="JVM__instance_only">'{{sheetName}}'!$J$56:$J$56</definedName>
+    <definedName name="Newtonsoft__duration__both">'{{sheetName}}'!$B$56:$B$56</definedName>
+    <definedName name="Newtonsoft__duration__serialization">'{{sheetName}}'!$B$52:$B$52</definedName>
+    <definedName name="Newtonsoft__size">'{{sheetName}}'!$C$52:$C$52</definedName>
+    <definedName name="Protobuf.NET__duration__both">'{{sheetName}}'!$H$56:$H$56</definedName>
+    <definedName name="Protobuf.NET__duration__serialization">'{{sheetName}}'!$N$52:$N$52</definedName>
+    <definedName name="Protobuf.NET__size">'{{sheetName}}'!$O$52:$O$52</definedName>
+    <definedName name="Revenj.NET_full__duration__serialization">'{{sheetName}}'!$D$52:$D$52</definedName>
+    <definedName name="Revenj.NET_full__duration_both">'{{sheetName}}'!$C$56:$C$56</definedName>
+    <definedName name="Revenj.NET_full__size">'{{sheetName}}'!$E$52:$E$52</definedName>
+    <definedName name="Revenj.NET_minimal__duration__both">'{{sheetName}}'!$D$56:$D$56</definedName>
+    <definedName name="Revenj.NET_minimal__duration__serialization">'{{sheetName}}'!$F$52:$F$52</definedName>
+    <definedName name="Revenj.NET_minimal__size">'{{sheetName}}'!$G$52:$G$52</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -209,11 +209,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -442,10 +442,8 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="hr-HR"/>
   <c:roundedCorners val="1"/>
-  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -471,7 +469,6 @@
       <c:layout/>
       <c:overlay val="1"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -483,7 +480,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$38</c:f>
+              <c:f>'{{sheetName}}'!$B$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -503,17 +500,11 @@
           <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$37:$K$37</c:f>
+              <c:f>'{{sheetName}}'!$C$37:$K$37</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -548,7 +539,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$38:$K$38</c:f>
+              <c:f>'{{sheetName}}'!$C$38:$K$38</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -602,7 +593,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$39</c:f>
+              <c:f>'{{sheetName}}'!$B$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -622,17 +613,11 @@
           <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$37:$K$37</c:f>
+              <c:f>'{{sheetName}}'!$C$37:$K$37</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -667,7 +652,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$39:$K$39</c:f>
+              <c:f>'{{sheetName}}'!$C$39:$K$39</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -710,27 +695,17 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="220747264"/>
-        <c:axId val="220748800"/>
+        <c:dLbls/>
+        <c:axId val="114200960"/>
+        <c:axId val="114202496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="220747264"/>
+        <c:axId val="114200960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -740,7 +715,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="220748800"/>
+        <c:crossAx val="114202496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -748,11 +723,10 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220748800"/>
+        <c:axId val="114202496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -789,8 +763,6 @@
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -800,7 +772,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="220747264"/>
+        <c:crossAx val="114200960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -816,7 +788,6 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -838,7 +809,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -846,10 +817,8 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="hr-HR"/>
   <c:roundedCorners val="1"/>
-  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -875,7 +844,6 @@
       <c:layout/>
       <c:overlay val="1"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -887,7 +855,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$41</c:f>
+              <c:f>'{{sheetName}}'!$B$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -907,17 +875,11 @@
           <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$37:$I$37</c:f>
+              <c:f>'{{sheetName}}'!$C$37:$I$37</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -946,7 +908,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$41:$I$41</c:f>
+              <c:f>'{{sheetName}}'!$C$41:$I$41</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -989,27 +951,17 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="220782976"/>
-        <c:axId val="220784512"/>
+        <c:dLbls/>
+        <c:axId val="114215168"/>
+        <c:axId val="114106368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="220782976"/>
+        <c:axId val="114215168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1019,7 +971,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="220784512"/>
+        <c:crossAx val="114106368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1027,11 +979,10 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220784512"/>
+        <c:axId val="114106368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1068,8 +1019,6 @@
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1079,7 +1028,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="220782976"/>
+        <c:crossAx val="114215168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1095,7 +1044,6 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1117,7 +1065,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1263,7 +1211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1298,7 +1245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1474,14 +1420,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5"/>
     <col min="2" max="2" width="19.85546875"/>
@@ -1500,12 +1446,12 @@
     <col min="16" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11">
       <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
@@ -1537,7 +1483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11">
       <c r="B38" s="4" t="s">
         <v>11</v>
       </c>
@@ -1578,7 +1524,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11">
       <c r="B39" s="7" t="s">
         <v>12</v>
       </c>
@@ -1613,7 +1559,7 @@
       <c r="J39" s="8"/>
       <c r="K39" s="9"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11">
       <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
@@ -1648,7 +1594,7 @@
       <c r="J40" s="5"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11">
       <c r="B41" s="10" t="s">
         <v>14</v>
       </c>
@@ -1683,7 +1629,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="13"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11">
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
@@ -1692,7 +1638,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11">
       <c r="B45" s="1" t="s">
         <v>15</v>
       </c>
@@ -1718,7 +1664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11">
       <c r="B46" s="4" t="s">
         <v>11</v>
       </c>
@@ -1751,7 +1697,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11">
       <c r="B47" s="10" t="s">
         <v>13</v>
       </c>
@@ -1784,19 +1730,19 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11">
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15">
       <c r="B50" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15">
       <c r="B51" s="1" t="s">
         <v>17</v>
       </c>
@@ -1840,7 +1786,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15">
       <c r="B52" s="16" t="s">
         <v>31</v>
       </c>
@@ -1884,12 +1830,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15">
       <c r="B54" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15">
       <c r="B55" s="1" t="s">
         <v>17</v>
       </c>
@@ -1918,7 +1864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15">
       <c r="B56" s="16" t="s">
         <v>46</v>
       </c>
